--- a/70-483-Progress.xlsx
+++ b/70-483-Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MCSD\Exam 70-483\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MCSD\Microsoft-Certificate-Exam-Guides\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,376 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="205">
-  <si>
-    <t>Designing and Implementing WCF Services (19%)</t>
-  </si>
-  <si>
-    <t>Creating and Consuming Web API-based services (18%)</t>
-  </si>
-  <si>
-    <t>Deploying Web Applications and Services (19%)</t>
-  </si>
-  <si>
-    <t>Query and manipulate data by using the Entity Framework.</t>
-  </si>
-  <si>
-    <t>Query, update, and delete data by using DbContext</t>
-  </si>
-  <si>
-    <t>Build a query that uses deferred execution</t>
-  </si>
-  <si>
-    <t>Implement lazy loading and eager loading</t>
-  </si>
-  <si>
-    <t>Create and run compiled queries</t>
-  </si>
-  <si>
-    <t>Query data by using Entity SQL</t>
-  </si>
-  <si>
-    <t>Query and manipulate data by using Data Provider for Entity Framework</t>
-  </si>
-  <si>
-    <t>Query and manipulate data by using Connection, DataReader, Command from the System.Data.EntityClient namespace</t>
-  </si>
-  <si>
-    <t>Perform synchronous and asynchronous operations</t>
-  </si>
-  <si>
-    <t>Manage transactions (API)</t>
-  </si>
-  <si>
-    <t>Query data by using LINQ to Entities.</t>
-  </si>
-  <si>
-    <t>Query data by using LINQ operators (for example, project, skip, aggregate, filter, and join)</t>
-  </si>
-  <si>
-    <t>Log queries</t>
-  </si>
-  <si>
-    <t>Implement query boundaries (IQueryable vs. IEnumerable)</t>
-  </si>
-  <si>
-    <t>Query and manipulate data by using ADO.NET</t>
-  </si>
-  <si>
-    <t>Query and manipulate data by using Connection, DataReader, Command, DataAdapter, DataSet</t>
-  </si>
-  <si>
-    <t>Create an Entity Framework data model. – Entity Framework and Data Models</t>
-  </si>
-  <si>
-    <t>Structure the data model using Table per type, table per class, table per hierarchy</t>
-  </si>
-  <si>
-    <t>Choose and implement an approach to manage a data model (code first vs. model first vs. database first)</t>
-  </si>
-  <si>
-    <t>Implement POCO objects</t>
-  </si>
-  <si>
-    <t>Describe a data model by using conceptual schema definitions, storage schema definition, and mapping language (CSDL, SSDL, MSL)</t>
-  </si>
-  <si>
-    <t>Create a WCF service</t>
-  </si>
-  <si>
-    <t>Create contracts (service, data, message, callback, and fault)</t>
-  </si>
-  <si>
-    <t>Implement message inspectors</t>
-  </si>
-  <si>
-    <t>Implement asynchronous operations in the service</t>
-  </si>
-  <si>
-    <t>Configure WCF services by using configuration settings</t>
-  </si>
-  <si>
-    <t>Configure service behaviors</t>
-  </si>
-  <si>
-    <t>Configure service endpoints</t>
-  </si>
-  <si>
-    <t>Configure bindings</t>
-  </si>
-  <si>
-    <t>Specify a service contract</t>
-  </si>
-  <si>
-    <t>Expose service metadata (XSDs, WSDL and metadata exchange endpoint)</t>
-  </si>
-  <si>
-    <t>Configure WCF services by using the API</t>
-  </si>
-  <si>
-    <t>WCF routing and discovery features</t>
-  </si>
-  <si>
-    <t>Secure a WCF service</t>
-  </si>
-  <si>
-    <t>Implement message level security</t>
-  </si>
-  <si>
-    <t>Implement transport level security</t>
-  </si>
-  <si>
-    <t>Implement certificates</t>
-  </si>
-  <si>
-    <t>Consume WCF services</t>
-  </si>
-  <si>
-    <t>Generate proxies by using SvcUtil;</t>
-  </si>
-  <si>
-    <t>Generate proxies by creating a service reference;</t>
-  </si>
-  <si>
-    <t>Create and implement channel factories</t>
-  </si>
-  <si>
-    <t>Version a WCF service</t>
-  </si>
-  <si>
-    <t>This objective may include but is not limited to: Version different types of contracts (message, service, data)</t>
-  </si>
-  <si>
-    <t>Configure address, binding, and routing service versioning</t>
-  </si>
-  <si>
-    <t>Create and configure a WCF service on Windows Azure</t>
-  </si>
-  <si>
-    <t>Create and configure bindings for WCF services (Azure SDK-- extensions to WCF)</t>
-  </si>
-  <si>
-    <t>Relay bindings to Azure using service bus endpoints</t>
-  </si>
-  <si>
-    <t>Integrate with the Azure service bus relay</t>
-  </si>
-  <si>
-    <t>Implement messaging patterns</t>
-  </si>
-  <si>
-    <t>Implement one way, request/reply, streaming, and duplex communication</t>
-  </si>
-  <si>
-    <t>Implement Windows Azure Service Bus and Windows Azure Queues</t>
-  </si>
-  <si>
-    <t>Host and manage services</t>
-  </si>
-  <si>
-    <t>Manage services concurrency (single, multiple, reentrant)</t>
-  </si>
-  <si>
-    <t>Create service hosts</t>
-  </si>
-  <si>
-    <t>Choose a hosting mechanism</t>
-  </si>
-  <si>
-    <t>Choose an instancing mode (per call, per session, singleton)</t>
-  </si>
-  <si>
-    <t>Activate and manage a service by using AppFabric</t>
-  </si>
-  <si>
-    <t>Implement transactional services</t>
-  </si>
-  <si>
-    <t>Host services in an Windows Azure worker role</t>
-  </si>
-  <si>
-    <t>Design a Web API</t>
-  </si>
-  <si>
-    <t>Define HTTP resources with HTTP actions</t>
-  </si>
-  <si>
-    <t>Plan appropriate URI space, and map URI space using routing</t>
-  </si>
-  <si>
-    <t>Choose appropriate HTTP method (get, put, post, delete) to meet requirements</t>
-  </si>
-  <si>
-    <t>Choose appropriate format (Web API formats) for responses to meet requirements</t>
-  </si>
-  <si>
-    <t>Plan when to make HTTP actions asynchronous</t>
-  </si>
-  <si>
-    <t>Implement a Web API</t>
-  </si>
-  <si>
-    <t>Accept data in JSON format (in JavaScript, in an AJAX callback)</t>
-  </si>
-  <si>
-    <t>Use content negotiation to deliver different data formats to clients</t>
-  </si>
-  <si>
-    <t>Define actions and parameters to handle data binding</t>
-  </si>
-  <si>
-    <t>Use HttpMessageHandler to process client requests and server responses</t>
-  </si>
-  <si>
-    <t>Implement dependency injection, along with the dependency resolver, to create more flexible applications</t>
-  </si>
-  <si>
-    <t>Implement action filters and exception filters to manage controller execution</t>
-  </si>
-  <si>
-    <t>Implement asynchronous and synchronous actions</t>
-  </si>
-  <si>
-    <t>Implement streaming actions</t>
-  </si>
-  <si>
-    <t>Secure a Web API</t>
-  </si>
-  <si>
-    <t>Implement HTTPBasic authentication over SSL</t>
-  </si>
-  <si>
-    <t>Implement Windows Auth</t>
-  </si>
-  <si>
-    <t>Enable cross-domain requests</t>
-  </si>
-  <si>
-    <t>Prevent cross-site request forgery (XSRF)</t>
-  </si>
-  <si>
-    <t>Implement, and extend, authorization filters to control access to the application</t>
-  </si>
-  <si>
-    <t>Host and manage Web API</t>
-  </si>
-  <si>
-    <t>Host Web API in an ASP.NET app</t>
-  </si>
-  <si>
-    <t>Self-host a Web API in your own process (a Windows service)</t>
-  </si>
-  <si>
-    <t>Host services in a Windows Azure worker role</t>
-  </si>
-  <si>
-    <t>Restricting message size</t>
-  </si>
-  <si>
-    <t>Configure the host server for streaming</t>
-  </si>
-  <si>
-    <t>Consume Web API web services</t>
-  </si>
-  <si>
-    <t>Consume Web API services by using HttpClient synchronously and asynchronously</t>
-  </si>
-  <si>
-    <t>Send and receive requests in different formats (JSON/HTML/etc.)</t>
-  </si>
-  <si>
-    <t>Design a deployment strategy</t>
-  </si>
-  <si>
-    <t>Create an IIS install package</t>
-  </si>
-  <si>
-    <t>Deploy to web farms</t>
-  </si>
-  <si>
-    <t>Deploy a web application by using XCopy</t>
-  </si>
-  <si>
-    <t>Automate a deployment from TFS or Build Server</t>
-  </si>
-  <si>
-    <t>Choose a deployment strategy for a Windows Azure web application</t>
-  </si>
-  <si>
-    <t>Perform an in-place upgrade and VIP swap</t>
-  </si>
-  <si>
-    <t>Configure an upgrade domain</t>
-  </si>
-  <si>
-    <t>Create and configure input and internal endpoints</t>
-  </si>
-  <si>
-    <t>Specify operating system configuration</t>
-  </si>
-  <si>
-    <t>Configure a web application for deployment</t>
-  </si>
-  <si>
-    <t>Switch from production/release mode to debug mode</t>
-  </si>
-  <si>
-    <t>Use SetParameters to set up an IIS app pool, set permissions and passwords)</t>
-  </si>
-  <si>
-    <t>Configure WCF endpoints, bindings, and behaviors</t>
-  </si>
-  <si>
-    <t>Transform web.config by using XSLT (for example, across development, test, and production/release environments)</t>
-  </si>
-  <si>
-    <t>Configure Azure configuration settings</t>
-  </si>
-  <si>
-    <t>Manage packages by using NuGet</t>
-  </si>
-  <si>
-    <t>Create and configure a NuGet package</t>
-  </si>
-  <si>
-    <t>Connect to a local repository cache for NuGet, set up your own package repository</t>
-  </si>
-  <si>
-    <t>Create, configure, and publish a web package</t>
-  </si>
-  <si>
-    <t>Create an IIS InstallPackage</t>
-  </si>
-  <si>
-    <t>Configure the build process to output a web package</t>
-  </si>
-  <si>
-    <t>Apply pre- and post- condition actions to ensure that transformations are correctly applied</t>
-  </si>
-  <si>
-    <t>Include appropriate assets (web content, certificates)</t>
-  </si>
-  <si>
-    <t>Share assemblies between multiple applications and servers</t>
-  </si>
-  <si>
-    <t>Prepare the environment for use of assemblies across multiple servers (interning)</t>
-  </si>
-  <si>
-    <t>Sign assemblies by using a strong name</t>
-  </si>
-  <si>
-    <t>Deploy assemblies to the global assembly cache</t>
-  </si>
-  <si>
-    <t>Implement assembly versioning</t>
-  </si>
-  <si>
-    <t>Create an assembly manifest</t>
-  </si>
-  <si>
-    <t>Configure assembly binding redirects (for example, from MVC2 to MVC3)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t>Points</t>
   </si>
@@ -475,9 +106,6 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>Install and update an existing NuGet package</t>
-  </si>
-  <si>
     <t>Backlog Details - Exam 70-483 - Programming in C#</t>
   </si>
   <si>
@@ -641,6 +269,216 @@
   </si>
   <si>
     <t>create custom exceptions</t>
+  </si>
+  <si>
+    <t>Create value types (structs, enum), reference types, generic types, constructors, static variables, methods, classes, extension methods, optional and named parameters, and indexed properties</t>
+  </si>
+  <si>
+    <t>create overloaded and overriden methods</t>
+  </si>
+  <si>
+    <t>Box or unbox to convert between value types</t>
+  </si>
+  <si>
+    <t>cast types</t>
+  </si>
+  <si>
+    <t>convert types</t>
+  </si>
+  <si>
+    <t>handle dynamic types</t>
+  </si>
+  <si>
+    <t>ensure interoperability with unmanaged code, for example, dynamic keyword</t>
+  </si>
+  <si>
+    <t>Enforce encapsulation by using properties, by using accessors (public, private, protected), and by using explicit interface implementation</t>
+  </si>
+  <si>
+    <t>Design and implement an interface; inherit from a base class; create and implement classes based on the IComparable, IEnumerable, IDisposable, and IUnknown interfaces</t>
+  </si>
+  <si>
+    <t>Create and apply attributes</t>
+  </si>
+  <si>
+    <t>read attributes</t>
+  </si>
+  <si>
+    <t>generate code at runtime by using CodeDom and lambda expressions</t>
+  </si>
+  <si>
+    <t>use types from the System.Reflection namespace (Assembly, PropertyInfo, MethodInfo, Type)</t>
+  </si>
+  <si>
+    <t>Manage unmanaged resources</t>
+  </si>
+  <si>
+    <t>implement IDisposable, including interaction with finalization</t>
+  </si>
+  <si>
+    <t>manage IDisposable by using the Using statement</t>
+  </si>
+  <si>
+    <t>manage finalization and garbage collection</t>
+  </si>
+  <si>
+    <t>Manipulate strings</t>
+  </si>
+  <si>
+    <t>Manipulate strings by using the StringBuilder, StringWriter, and StringReader classes</t>
+  </si>
+  <si>
+    <t>search strings</t>
+  </si>
+  <si>
+    <t>enumerate string methods</t>
+  </si>
+  <si>
+    <t>format strings</t>
+  </si>
+  <si>
+    <t>Validate JSON data</t>
+  </si>
+  <si>
+    <t>data collection types</t>
+  </si>
+  <si>
+    <t>manage data integrity</t>
+  </si>
+  <si>
+    <t>evaluate a regular expression to validate the input format</t>
+  </si>
+  <si>
+    <t>use built-in functions to validate data type and content out of scope</t>
+  </si>
+  <si>
+    <t>writing regular expressions</t>
+  </si>
+  <si>
+    <t>Choose an appropriate encryption algorithm</t>
+  </si>
+  <si>
+    <t>manage and create certificates</t>
+  </si>
+  <si>
+    <t>implement key management</t>
+  </si>
+  <si>
+    <t>implement the System.Security namespace</t>
+  </si>
+  <si>
+    <t>hashing data</t>
+  </si>
+  <si>
+    <t>encrypt streams</t>
+  </si>
+  <si>
+    <t>Version assemblies</t>
+  </si>
+  <si>
+    <t>sign assemblies using strong names</t>
+  </si>
+  <si>
+    <t>implement side-by-side hosting</t>
+  </si>
+  <si>
+    <t>put an assembly in the global assembly cache</t>
+  </si>
+  <si>
+    <t>create a WinMD assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Debug an application </t>
+  </si>
+  <si>
+    <t>Create and manage compiler directives</t>
+  </si>
+  <si>
+    <t>choose an appropriate build type</t>
+  </si>
+  <si>
+    <t>manage programming database files and symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implement diagnostics in an application </t>
+  </si>
+  <si>
+    <t>Implement logging and tracing</t>
+  </si>
+  <si>
+    <t>profiling applications</t>
+  </si>
+  <si>
+    <t>create and monitor performance counters</t>
+  </si>
+  <si>
+    <t>write to the event log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform I/O operations </t>
+  </si>
+  <si>
+    <t>Read and write files and streams</t>
+  </si>
+  <si>
+    <t>read and write from the network by using classes in the System.Net namespace</t>
+  </si>
+  <si>
+    <t>implement asynchronous I/O operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consume data </t>
+  </si>
+  <si>
+    <t>Retrieve data from a database</t>
+  </si>
+  <si>
+    <t>pdate data in a database</t>
+  </si>
+  <si>
+    <t>consume JSON and XML data</t>
+  </si>
+  <si>
+    <t>Query data by using operators (projection, join, group, take, skip, aggregate)</t>
+  </si>
+  <si>
+    <t>create method-based LINQ queries</t>
+  </si>
+  <si>
+    <t>query data by using query comprehension syntax;</t>
+  </si>
+  <si>
+    <t>select data by using anonymous types</t>
+  </si>
+  <si>
+    <t>force execution of a query</t>
+  </si>
+  <si>
+    <t>read, filter, create, and modify data structures by using LINQ to XML</t>
+  </si>
+  <si>
+    <t>Serialize and deserialize data by using binary serialization, custom serialization, XML Serializer, JSON Serializer, and Data Contract Serializer</t>
+  </si>
+  <si>
+    <t>Store and retrieve data by using dictionaries, arrays, lists, sets, and queues</t>
+  </si>
+  <si>
+    <t>choose a collection type</t>
+  </si>
+  <si>
+    <t>initialize a collection</t>
+  </si>
+  <si>
+    <t>add and remove items from a collection</t>
+  </si>
+  <si>
+    <t>use typed vs. non-typed collections</t>
+  </si>
+  <si>
+    <t>implement custom collections</t>
+  </si>
+  <si>
+    <t>implement collection interfaces</t>
   </si>
 </sst>
 </file>
@@ -827,7 +665,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -844,9 +682,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -861,12 +696,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -879,9 +712,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -904,26 +734,17 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
@@ -1171,8 +992,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1356381536"/>
-        <c:axId val="1356383168"/>
+        <c:axId val="1182813248"/>
+        <c:axId val="1182812160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1561,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1356391328"/>
-        <c:axId val="1356380448"/>
+        <c:axId val="1182815968"/>
+        <c:axId val="1182811072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1356391328"/>
+        <c:axId val="1182815968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,14 +1429,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356380448"/>
+        <c:crossAx val="1182811072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1356380448"/>
+        <c:axId val="1182811072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1653,12 +1474,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356391328"/>
+        <c:crossAx val="1182815968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1356383168"/>
+        <c:axId val="1182812160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,12 +1530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356381536"/>
+        <c:crossAx val="1182813248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1356381536"/>
+        <c:axId val="1182813248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1356383168"/>
+        <c:crossAx val="1182812160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2670,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,691 +2511,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="A1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="16" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="21">
         <f>SUM(Details!C3:C34)</f>
-        <v>211.53846153846152</v>
-      </c>
-      <c r="D4" s="23">
+        <v>307.69230769230779</v>
+      </c>
+      <c r="D4" s="21">
         <f>SUM(Details!F3:F34)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <f t="shared" ref="E4:E29" si="0">C4-D4</f>
-        <v>211.53846153846152</v>
-      </c>
-      <c r="F4" s="13">
+        <v>307.69230769230779</v>
+      </c>
+      <c r="F4" s="12">
         <f>D4/C4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="9">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8">
         <f>B4</f>
         <v>0.25</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <f>SUM(Details!C4:C10)</f>
-        <v>19.23076923076923</v>
-      </c>
-      <c r="D5" s="25">
+        <v>67.307692307692307</v>
+      </c>
+      <c r="D5" s="22">
         <f>SUM(Details!F4:F10)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
-        <v>19.23076923076923</v>
-      </c>
-      <c r="F5" s="10">
+        <v>67.307692307692307</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F30" si="1">D5/C5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="9">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8">
         <f>B4</f>
         <v>0.25</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <f>SUM(Details!C11:C15)</f>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="D6" s="25">
+        <v>48.076923076923073</v>
+      </c>
+      <c r="D6" s="22">
         <f>SUM(Details!F11:F15)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <f t="shared" si="0"/>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="F6" s="10">
+        <v>48.076923076923073</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="9">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8">
         <f>B4</f>
         <v>0.25</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <f>SUM(Details!C16:C20)</f>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="D7" s="25">
+        <v>48.076923076923073</v>
+      </c>
+      <c r="D7" s="22">
         <f>SUM(Details!F16:F20)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="F7" s="10">
+        <v>48.076923076923073</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="9">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8">
         <f>B4</f>
         <v>0.25</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <f>SUM(Details!C21:C27)</f>
-        <v>57.692307692307686</v>
-      </c>
-      <c r="D8" s="25">
+        <v>67.307692307692307</v>
+      </c>
+      <c r="D8" s="22">
         <f>SUM(Details!F21:F27)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <f t="shared" si="0"/>
-        <v>57.692307692307686</v>
-      </c>
-      <c r="F8" s="10">
+        <v>67.307692307692307</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="A9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="24">
         <f>B4</f>
         <v>0.25</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <f>SUM(Details!C28:C34)</f>
-        <v>48.076923076923073</v>
-      </c>
-      <c r="D9" s="27">
+        <v>67.307692307692307</v>
+      </c>
+      <c r="D9" s="24">
         <f>SUM(Details!F28:F34)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
-        <v>48.076923076923073</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="13">
+        <v>67.307692307692307</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12">
         <v>0.24</v>
       </c>
-      <c r="C10" s="23">
-        <f>SUM(Details!C35:C58)</f>
-        <v>240</v>
-      </c>
-      <c r="D10" s="23">
-        <f>SUM(Details!F35:F58)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="C10" s="21">
+        <f>SUM(Details!C35:C53)</f>
+        <v>190</v>
+      </c>
+      <c r="D10" s="21">
+        <f>SUM(Details!F35:F53)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F10" s="13">
+        <v>190</v>
+      </c>
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="9">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8">
         <f>B10</f>
         <v>0.24</v>
       </c>
-      <c r="C11" s="25">
-        <f>SUM(Details!C36:C41)</f>
+      <c r="C11" s="22">
+        <f>SUM(Details!C36:C38)</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="22">
+        <f>SUM(Details!F36:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8">
+        <f>B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="C12" s="22">
+        <f>SUM(Details!C39:C44)</f>
         <v>60</v>
       </c>
-      <c r="D11" s="25">
-        <f>SUM(Details!F36:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D12" s="22">
+        <f>SUM(Details!F39:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8">
         <f>B10</f>
         <v>0.24</v>
       </c>
-      <c r="C12" s="25">
-        <f>SUM(Details!C42:C45)</f>
-        <v>40</v>
-      </c>
-      <c r="D12" s="25">
-        <f>SUM(Details!F42:F45)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="C13" s="22">
+        <f>SUM(Details!C45:C46)</f>
+        <v>20</v>
+      </c>
+      <c r="D13" s="22">
+        <f>SUM(Details!F45:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="9">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8">
         <f>B10</f>
         <v>0.24</v>
       </c>
-      <c r="C13" s="25">
-        <f>SUM(Details!C46:C49)</f>
+      <c r="C14" s="22">
+        <f>SUM(Details!C46:C47)</f>
+        <v>20</v>
+      </c>
+      <c r="D14" s="22">
+        <f>SUM(Details!F46:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25">
-        <f>SUM(Details!F46:F49)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="B15" s="8">
         <f>B10</f>
         <v>0.24</v>
       </c>
-      <c r="C14" s="25">
-        <f>SUM(Details!C47:C50)</f>
-        <v>40</v>
-      </c>
-      <c r="D14" s="25">
-        <f>SUM(Details!F47:F50)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="C15" s="22">
+        <f>SUM(Details!C47:C48)</f>
+        <v>20</v>
+      </c>
+      <c r="D15" s="22">
+        <f>SUM(Details!F47:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="9">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8">
         <f>B10</f>
         <v>0.24</v>
       </c>
-      <c r="C15" s="25">
-        <f>SUM(Details!C48:C51)</f>
-        <v>40</v>
-      </c>
-      <c r="D15" s="25">
-        <f>SUM(Details!F48:F51)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="C16" s="22">
+        <f>SUM(Details!C47:C48)</f>
+        <v>20</v>
+      </c>
+      <c r="D16" s="22">
+        <f>SUM(Details!F47:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="9">
+        <v>20</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="14">
         <f>B10</f>
         <v>0.24</v>
       </c>
-      <c r="C16" s="25">
-        <f>SUM(Details!C50:C53)</f>
-        <v>40</v>
-      </c>
-      <c r="D16" s="25">
-        <f>SUM(Details!F50:F53)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="15">
-        <f>B10</f>
-        <v>0.24</v>
-      </c>
-      <c r="C17" s="27">
-        <f>SUM(Details!C54:C58)</f>
+      <c r="C17" s="24">
+        <f>SUM(Details!C49:C53)</f>
         <v>50</v>
       </c>
-      <c r="D17" s="27">
-        <f>SUM(Details!F54:F58)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
+      <c r="D17" s="24">
+        <f>SUM(Details!F49:F53)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F17" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="C18" s="23">
-        <f>SUM(Details!C59:C102)</f>
-        <v>250.00000000000014</v>
-      </c>
-      <c r="D18" s="23">
-        <f>SUM(Details!F59:F102)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="21">
+        <f>SUM(Details!C64:C93)</f>
+        <v>170.45454545454552</v>
+      </c>
+      <c r="D18" s="21">
+        <f>SUM(Details!F64:F93)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>250.00000000000014</v>
-      </c>
-      <c r="F18" s="13">
+        <v>170.45454545454552</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="9">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8">
         <f>B18</f>
         <v>0.25</v>
       </c>
-      <c r="C19" s="25">
-        <f>SUM(Details!C60:C63)</f>
+      <c r="C19" s="22">
+        <f>SUM(Details!C65:C68)</f>
         <v>22.727272727272727</v>
       </c>
-      <c r="D19" s="25">
-        <f>SUM(Details!F60:F63)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="22">
+        <f>SUM(Details!F65:F68)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
         <f t="shared" si="0"/>
         <v>22.727272727272727</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="9">
+        <v>45</v>
+      </c>
+      <c r="B20" s="8">
         <f>B18</f>
         <v>0.25</v>
       </c>
-      <c r="C20" s="25">
-        <f>SUM(Details!C64:C69)</f>
+      <c r="C20" s="22">
+        <f>SUM(Details!C72:C77)</f>
         <v>34.090909090909086</v>
       </c>
-      <c r="D20" s="25">
-        <f>SUM(Details!F64:F69)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="D20" s="22">
+        <f>SUM(Details!F72:F77)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
         <f t="shared" si="0"/>
         <v>34.090909090909086</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="9">
+        <v>46</v>
+      </c>
+      <c r="B21" s="8">
         <f>B18</f>
         <v>0.25</v>
       </c>
-      <c r="C21" s="25">
-        <f>SUM(Details!C70:C76)</f>
-        <v>39.772727272727266</v>
-      </c>
-      <c r="D21" s="25">
-        <f>SUM(Details!F70:F76)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="C21" s="22">
+        <f>SUM(Details!C79:C84)</f>
+        <v>34.090909090909086</v>
+      </c>
+      <c r="D21" s="22">
+        <f>SUM(Details!F79:F84)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
         <f t="shared" si="0"/>
-        <v>39.772727272727266</v>
-      </c>
-      <c r="F21" s="10">
+        <v>34.090909090909086</v>
+      </c>
+      <c r="F21" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="9">
+        <v>47</v>
+      </c>
+      <c r="B22" s="8">
         <f>B18</f>
         <v>0.25</v>
       </c>
-      <c r="C22" s="25">
-        <f>SUM(Details!C77:C80)</f>
+      <c r="C22" s="22">
+        <f>SUM(Details!C85:C88)</f>
         <v>22.727272727272727</v>
       </c>
-      <c r="D22" s="25">
-        <f>SUM(Details!F77:F80)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="D22" s="22">
+        <f>SUM(Details!F85:F88)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
         <f t="shared" si="0"/>
         <v>22.727272727272727</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="15">
+      <c r="A23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="14">
         <f>B18</f>
         <v>0.25</v>
       </c>
-      <c r="C23" s="27">
-        <f>SUM(Details!C95:C102)</f>
-        <v>45.454545454545446</v>
-      </c>
-      <c r="D23" s="27">
-        <f>SUM(Details!F95:F102)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
+      <c r="C23" s="24">
+        <f>SUM(Details!C89:C93)</f>
+        <v>28.409090909090907</v>
+      </c>
+      <c r="D23" s="24">
+        <f>SUM(Details!F89:F93)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>45.454545454545446</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="13">
+        <v>28.409090909090907</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="12">
         <v>0.26</v>
       </c>
-      <c r="C24" s="23">
-        <f>SUM(Details!C103:C133)</f>
-        <v>259.99999999999989</v>
-      </c>
-      <c r="D24" s="23">
-        <f>SUM(Details!F103:F133)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="C24" s="21">
+        <f>SUM(Details!C94:C111)</f>
+        <v>150.96774193548387</v>
+      </c>
+      <c r="D24" s="21">
+        <f>SUM(Details!F94:F111)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>259.99999999999989</v>
-      </c>
-      <c r="F24" s="13">
+        <v>150.96774193548387</v>
+      </c>
+      <c r="F24" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="9">
+        <v>50</v>
+      </c>
+      <c r="B25" s="8">
         <f>B24</f>
         <v>0.26</v>
       </c>
-      <c r="C25" s="25">
-        <f>SUM(Details!C104:C109)</f>
-        <v>50.322580645161295</v>
-      </c>
-      <c r="D25" s="25">
-        <f>SUM(Details!F104:F109)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="C25" s="22">
+        <f>SUM(Details!C95:C98)</f>
+        <v>33.548387096774192</v>
+      </c>
+      <c r="D25" s="22">
+        <f>SUM(Details!F95:F98)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
         <f t="shared" si="0"/>
-        <v>50.322580645161295</v>
-      </c>
-      <c r="F25" s="10">
+        <v>33.548387096774192</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="9">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8">
         <f>B24</f>
         <v>0.26</v>
       </c>
-      <c r="C26" s="25">
-        <f>SUM(Details!C110:C118)</f>
-        <v>75.48387096774195</v>
-      </c>
-      <c r="D26" s="25">
-        <f>SUM(Details!F110:F118)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="C26" s="22">
+        <f>SUM(Details!C99:C102)</f>
+        <v>33.548387096774192</v>
+      </c>
+      <c r="D26" s="22">
+        <f>SUM(Details!F99:F102)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
         <f t="shared" si="0"/>
-        <v>75.48387096774195</v>
-      </c>
-      <c r="F26" s="10">
+        <v>33.548387096774192</v>
+      </c>
+      <c r="F26" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="9">
+        <v>52</v>
+      </c>
+      <c r="B27" s="8">
         <f>B24</f>
         <v>0.26</v>
       </c>
-      <c r="C27" s="25">
-        <f>SUM(Details!C119:C124)</f>
-        <v>50.322580645161295</v>
-      </c>
-      <c r="D27" s="25">
-        <f>SUM(Details!F119:F124)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="25">
+      <c r="C27" s="22">
+        <f>SUM(Details!C103:C109)</f>
+        <v>58.709677419354847</v>
+      </c>
+      <c r="D27" s="22">
+        <f>SUM(Details!F103:F109)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
-        <v>50.322580645161295</v>
-      </c>
-      <c r="F27" s="10">
+        <v>58.709677419354847</v>
+      </c>
+      <c r="F27" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="9">
+        <v>53</v>
+      </c>
+      <c r="B28" s="8">
         <f>B24</f>
         <v>0.26</v>
       </c>
-      <c r="C28" s="25">
-        <f>SUM(Details!C125:C130)</f>
-        <v>50.322580645161295</v>
-      </c>
-      <c r="D28" s="25">
-        <f>SUM(Details!F125:F130)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="25">
+      <c r="C28" s="22">
+        <f>SUM(Details!C110:C111)</f>
+        <v>16.774193548387096</v>
+      </c>
+      <c r="D28" s="22">
+        <f>SUM(Details!F110:F111)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
         <f t="shared" si="0"/>
-        <v>50.322580645161295</v>
-      </c>
-      <c r="F28" s="10">
+        <v>16.774193548387096</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="15">
+      <c r="A29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="14">
         <f>B24</f>
         <v>0.26</v>
       </c>
-      <c r="C29" s="27">
-        <f>SUM(Details!C131:C133)</f>
-        <v>25.161290322580644</v>
-      </c>
-      <c r="D29" s="27">
-        <f>SUM(Details!F131:F133)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="27">
+      <c r="C29" s="24">
+        <f>SUM(Details!C112:C119)</f>
+        <v>63.030303030303017</v>
+      </c>
+      <c r="D29" s="24">
+        <f>SUM(Details!F112:F119)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
         <f t="shared" si="0"/>
-        <v>25.161290322580644</v>
-      </c>
-      <c r="F29" s="16">
+        <v>63.030303030303017</v>
+      </c>
+      <c r="F29" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="29">
+      <c r="B30" s="7"/>
+      <c r="C30" s="26">
         <f>SUM(C4,C10,C18,C24)</f>
-        <v>961.53846153846155</v>
-      </c>
-      <c r="D30" s="29">
+        <v>819.11459508233725</v>
+      </c>
+      <c r="D30" s="26">
         <f>SUM(D4,D10,D18,D24)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="26">
         <f>SUM(E4,E10,E18,E24)</f>
-        <v>961.53846153846155</v>
+        <v>819.11459508233725</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
@@ -3382,74 +3203,74 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="29">
+      <c r="A31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="26">
         <f>SUM(D4,D10,D18,D24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="47">
+      <c r="A32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="43">
         <f>D30/C30</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="28">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25">
         <f ca="1">1 -F34/(DATE(2016,4,15)-DATE(2016,3,20))</f>
-        <v>3.8461538461538436E-2</v>
+        <v>7.6923076923076872E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="22">
+      <c r="A34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="20">
         <f ca="1">DATE(2016,4,15)-TODAY()</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="53">
+      <c r="A35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="45">
         <f ca="1">IF(F34&lt;&gt;0, E30/F34, "N/A")</f>
-        <v>38.46153846153846</v>
+        <v>34.129774795097383</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="9"/>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
@@ -3679,10 +3500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,139 +3517,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>150</v>
+      <c r="A1" s="28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>128</v>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <f>(B3*1000)/26</f>
         <v>9.615384615384615</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="e">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="e">
         <f>#REF!*D3</f>
         <v>#REF!</v>
       </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F40" si="0">C3*D3</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F38" si="0">C3*D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="34">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <f t="shared" ref="C4:C34" si="1">(B4*1000)/26</f>
         <v>9.615384615384615</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="e">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="e">
         <f>#REF!*D4</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="B5" s="17">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="46">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="B6" s="17">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="46">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="B7" s="17">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="46">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="B8" s="17">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="46">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="B9" s="17">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="46">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="35">
+        <v>60</v>
+      </c>
+      <c r="B10" s="31">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="32">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0</v>
       </c>
       <c r="E10" t="e">
@@ -3841,42 +3702,42 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="41">
+      <c r="A11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="37">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="38">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11" t="e">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="e">
         <f>#REF!*D11</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="18">
+        <v>61</v>
+      </c>
+      <c r="B12" s="17">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
       <c r="E12" t="e">
@@ -3890,17 +3751,17 @@
     </row>
     <row r="13" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="18">
+        <v>62</v>
+      </c>
+      <c r="B13" s="17">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="23">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" t="e">
@@ -3914,25 +3775,33 @@
     </row>
     <row r="14" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="B14" s="17">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="35">
+        <v>64</v>
+      </c>
+      <c r="B15" s="31">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="32">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
       <c r="E15" t="e">
@@ -3945,42 +3814,42 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="41">
+      <c r="A16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="37">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="38">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11" t="e">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="e">
         <f>#REF!*D16</f>
         <v>#REF!</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="18">
+        <v>65</v>
+      </c>
+      <c r="B17" s="17">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
       <c r="E17" t="e">
@@ -3994,17 +3863,17 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="18">
+        <v>66</v>
+      </c>
+      <c r="B18" s="17">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="23">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" t="e">
@@ -4018,25 +3887,33 @@
     </row>
     <row r="19" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="B19" s="17">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="35">
+        <v>68</v>
+      </c>
+      <c r="B20" s="31">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="32">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>0</v>
       </c>
       <c r="E20" t="e">
@@ -4049,66 +3926,66 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="19">
+      <c r="A21" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="37">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="38">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" t="e">
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="e">
         <f>#REF!*D21</f>
         <v>#REF!</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22">
+        <v>69</v>
+      </c>
+      <c r="B22" s="8">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11" t="e">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="e">
         <f>#REF!*D22</f>
         <v>#REF!</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="9">
+        <v>70</v>
+      </c>
+      <c r="B23" s="8">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="22">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" t="e">
@@ -4122,17 +3999,17 @@
     </row>
     <row r="24" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="9">
+        <v>71</v>
+      </c>
+      <c r="B24" s="8">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="22">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" t="e">
@@ -4146,17 +4023,17 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="9">
+        <v>72</v>
+      </c>
+      <c r="B25" s="8">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="22">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" t="e">
@@ -4170,25 +4047,33 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="B26" s="8">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="22">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="35">
+        <v>74</v>
+      </c>
+      <c r="B27" s="31">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="32">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>0</v>
       </c>
       <c r="E27" t="e">
@@ -4201,42 +4086,42 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="19">
+      <c r="A28" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="37">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="38">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11" t="e">
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="e">
         <f>#REF!*D28</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="9">
+        <v>75</v>
+      </c>
+      <c r="B29" s="8">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="E29" t="e">
@@ -4250,17 +4135,17 @@
     </row>
     <row r="30" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="9">
+        <v>76</v>
+      </c>
+      <c r="B30" s="8">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>0</v>
       </c>
       <c r="E30" t="e">
@@ -4274,17 +4159,17 @@
     </row>
     <row r="31" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="9">
+        <v>77</v>
+      </c>
+      <c r="B31" s="8">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>0</v>
       </c>
       <c r="E31" t="e">
@@ -4298,33 +4183,49 @@
     </row>
     <row r="32" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="B32" s="8">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C32" s="22">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="B33" s="8">
+        <f>Summary!B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="22">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="35">
+        <v>80</v>
+      </c>
+      <c r="B34" s="31">
         <f>Summary!B4</f>
         <v>0.25</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="32">
         <f t="shared" si="1"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>0</v>
       </c>
       <c r="E34" t="e">
@@ -4337,66 +4238,66 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="49">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="12">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="21">
         <f>(B35*1000)/24</f>
         <v>10</v>
       </c>
-      <c r="D35" s="12">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="e">
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11" t="e">
         <f>#REF!*D35</f>
         <v>#REF!</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="45">
+      <c r="A36" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="41">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C36" s="46">
-        <f t="shared" ref="C36:C58" si="2">(B36*1000)/24</f>
+      <c r="C36" s="42">
+        <f t="shared" ref="C36:C53" si="2">(B36*1000)/24</f>
         <v>10</v>
       </c>
-      <c r="D36" s="12">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11" t="e">
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="e">
         <f>#REF!*D36</f>
         <v>#REF!</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="18">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" t="e">
@@ -4409,18 +4310,18 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="18">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" t="e">
@@ -4433,42 +4334,42 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="18">
+      <c r="A39" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="38">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" t="e">
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10" t="e">
         <f>#REF!*D39</f>
         <v>#REF!</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="18">
+      <c r="F39" s="10">
+        <f t="shared" ref="F39:F81" si="3">C39*D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" t="e">
@@ -4476,23 +4377,23 @@
         <v>#REF!</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="35">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>0</v>
       </c>
       <c r="E41" t="e">
@@ -4500,71 +4401,55 @@
         <v>#REF!</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:F72" si="3">C41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="41">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D42" s="12">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11" t="e">
-        <f>#REF!*D42</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F42" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="18">
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D43" s="12">
-        <v>0</v>
-      </c>
-      <c r="E43" t="e">
-        <f>#REF!*D43</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
+      <c r="D43" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="18">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="31">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="32">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>0</v>
       </c>
       <c r="E44" t="e">
@@ -4577,90 +4462,90 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="35">
+      <c r="A45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="37">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="38">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D45" s="12">
-        <v>0</v>
-      </c>
-      <c r="E45" t="e">
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10" t="e">
         <f>#REF!*D45</f>
         <v>#REF!</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="41">
+    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11" t="e">
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" t="e">
         <f>#REF!*D46</f>
         <v>#REF!</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="18">
+    <row r="47" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="37">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="38">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" t="e">
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10" t="e">
         <f>#REF!*D47</f>
         <v>#REF!</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="18">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" t="e">
@@ -4673,66 +4558,66 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="35">
+      <c r="A49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="37">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="38">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D49" s="12">
-        <v>0</v>
-      </c>
-      <c r="E49" t="e">
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10" t="e">
         <f>#REF!*D49</f>
         <v>#REF!</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="41">
+    <row r="50" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D50" s="12">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11" t="e">
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" t="e">
         <f>#REF!*D50</f>
         <v>#REF!</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="18">
+    <row r="51" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>0</v>
       </c>
       <c r="E51" t="e">
@@ -4745,18 +4630,18 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="18">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>0</v>
       </c>
       <c r="E52" t="e">
@@ -4769,18 +4654,18 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="35">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="31">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="32">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>0</v>
       </c>
       <c r="E53" t="e">
@@ -4793,42 +4678,42 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="41">
+      <c r="A54" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="37">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C54" s="42">
-        <f t="shared" si="2"/>
+      <c r="C54" s="38">
+        <f t="shared" ref="C54:C58" si="4">(B54*1000)/24</f>
         <v>10</v>
       </c>
-      <c r="D54" s="12">
-        <v>0</v>
-      </c>
-      <c r="E54" s="11" t="e">
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10" t="e">
         <f>#REF!*D54</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="11">
-        <f t="shared" si="3"/>
+      <c r="F54" s="10">
+        <f t="shared" ref="F54:F57" si="5">C54*D54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="18">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C55" s="26">
-        <f t="shared" si="2"/>
+      <c r="C55" s="23">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>0</v>
       </c>
       <c r="E55" t="e">
@@ -4836,23 +4721,23 @@
         <v>#REF!</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="18">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C56" s="26">
-        <f t="shared" si="2"/>
+      <c r="C56" s="23">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" t="e">
@@ -4860,23 +4745,23 @@
         <v>#REF!</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="18">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C57" s="26">
-        <f t="shared" si="2"/>
+      <c r="C57" s="23">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>0</v>
       </c>
       <c r="E57" t="e">
@@ -4884,95 +4769,87 @@
         <v>#REF!</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="15">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="17">
         <f>Summary!B10</f>
         <v>0.24</v>
       </c>
-      <c r="C58" s="27">
-        <f t="shared" si="2"/>
+      <c r="C58" s="23">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D58" s="12">
-        <v>0</v>
-      </c>
-      <c r="E58" t="e">
-        <f>#REF!*D58</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="49">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C59" s="50">
-        <f>(B59*1000)/44</f>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12" t="e">
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="37">
+        <f>Summary!B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="C59" s="38">
+        <f t="shared" ref="C59:C63" si="6">(B59*1000)/24</f>
+        <v>10</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10" t="e">
         <f>#REF!*D59</f>
         <v>#REF!</v>
       </c>
-      <c r="F59" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="45">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C60" s="46">
-        <f t="shared" ref="C60:C102" si="4">(B60*1000)/44</f>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11" t="e">
+      <c r="F59" s="10">
+        <f t="shared" ref="F59:F62" si="7">C59*D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="17">
+        <f>Summary!B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="C60" s="23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0</v>
+      </c>
+      <c r="E60" t="e">
         <f>#REF!*D60</f>
         <v>#REF!</v>
       </c>
-      <c r="F60" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C61" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D61" s="12">
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="17">
+        <f>Summary!B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="C61" s="23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D61" s="11">
         <v>0</v>
       </c>
       <c r="E61" t="e">
@@ -4980,23 +4857,23 @@
         <v>#REF!</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C62" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D62" s="12">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="17">
+        <f>Summary!B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="C62" s="23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D62" s="11">
         <v>0</v>
       </c>
       <c r="E62" t="e">
@@ -5004,47 +4881,39 @@
         <v>#REF!</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="35">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="17">
+        <f>Summary!B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="C63" s="23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="12">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C63" s="36">
-        <f t="shared" si="4"/>
+      <c r="C64" s="21">
+        <f>(B64*1000)/44</f>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D63" s="12">
-        <v>0</v>
-      </c>
-      <c r="E63" t="e">
-        <f>#REF!*D63</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="41">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C64" s="42">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>0</v>
       </c>
       <c r="E64" s="11" t="e">
@@ -5056,43 +4925,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="18">
+    <row r="65" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="41">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C65" s="26">
-        <f t="shared" si="4"/>
+      <c r="C65" s="42">
+        <f t="shared" ref="C65:C93" si="8">(B65*1000)/44</f>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D65" s="12">
-        <v>0</v>
-      </c>
-      <c r="E65" t="e">
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="e">
         <f>#REF!*D65</f>
         <v>#REF!</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="18">
+    <row r="66" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C66" s="26">
-        <f t="shared" si="4"/>
+      <c r="C66" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <v>0</v>
       </c>
       <c r="E66" t="e">
@@ -5105,18 +4974,18 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="18">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C67" s="26">
-        <f t="shared" si="4"/>
+      <c r="C67" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>0</v>
       </c>
       <c r="E67" t="e">
@@ -5129,18 +4998,18 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="18">
+      <c r="A68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C68" s="26">
-        <f t="shared" si="4"/>
+      <c r="C68" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <v>0</v>
       </c>
       <c r="E68" t="e">
@@ -5153,114 +5022,90 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="35">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="17">
+        <f>Summary!B20</f>
+        <v>0.25</v>
+      </c>
+      <c r="C69" s="23">
+        <f t="shared" si="8"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="17">
+        <f>Summary!B21</f>
+        <v>0.25</v>
+      </c>
+      <c r="C70" s="23">
+        <f t="shared" si="8"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="17">
+        <f>Summary!B22</f>
+        <v>0.25</v>
+      </c>
+      <c r="C71" s="23">
+        <f t="shared" si="8"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="37">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C69" s="36">
-        <f t="shared" si="4"/>
+      <c r="C72" s="38">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D69" s="12">
-        <v>0</v>
-      </c>
-      <c r="E69" t="e">
-        <f>#REF!*D69</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F69">
+      <c r="D72" s="11">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10" t="e">
+        <f>#REF!*D72</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F72" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="41">
+    <row r="73" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C70" s="42">
-        <f t="shared" si="4"/>
+      <c r="C73" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D70" s="12">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11" t="e">
-        <f>#REF!*D70</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C71" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0</v>
-      </c>
-      <c r="E71" t="e">
-        <f>#REF!*D71</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C72" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D72" s="12">
-        <v>0</v>
-      </c>
-      <c r="E72" t="e">
-        <f>#REF!*D72</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C73" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <v>0</v>
       </c>
       <c r="E73" t="e">
@@ -5268,23 +5113,23 @@
         <v>#REF!</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:F104" si="5">C73*D73</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="18">
+      <c r="A74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C74" s="26">
-        <f t="shared" si="4"/>
+      <c r="C74" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <v>0</v>
       </c>
       <c r="E74" t="e">
@@ -5292,23 +5137,23 @@
         <v>#REF!</v>
       </c>
       <c r="F74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="18">
+      <c r="A75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C75" s="26">
-        <f t="shared" si="4"/>
+      <c r="C75" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="11">
         <v>0</v>
       </c>
       <c r="E75" t="e">
@@ -5316,23 +5161,23 @@
         <v>#REF!</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="35">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C76" s="36">
-        <f t="shared" si="4"/>
+      <c r="C76" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <v>0</v>
       </c>
       <c r="E76" t="e">
@@ -5340,95 +5185,87 @@
         <v>#REF!</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="41">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C77" s="42">
-        <f t="shared" si="4"/>
+      <c r="C77" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D77" s="12">
-        <v>0</v>
-      </c>
-      <c r="E77" s="11" t="e">
+      <c r="D77" s="11">
+        <v>0</v>
+      </c>
+      <c r="E77" t="e">
         <f>#REF!*D77</f>
         <v>#REF!</v>
       </c>
-      <c r="F77" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="18">
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C78" s="26">
-        <f t="shared" si="4"/>
+      <c r="C78" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D78" s="12">
-        <v>0</v>
-      </c>
-      <c r="E78" t="e">
-        <f>#REF!*D78</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="5"/>
+      <c r="D78" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" s="18">
+      <c r="A79" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="37">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C79" s="26">
-        <f t="shared" si="4"/>
+      <c r="C79" s="38">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D79" s="12">
-        <v>0</v>
-      </c>
-      <c r="E79" t="e">
+      <c r="D79" s="11">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10" t="e">
         <f>#REF!*D79</f>
         <v>#REF!</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="35">
+      <c r="F79" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C80" s="36">
-        <f t="shared" si="4"/>
+      <c r="C80" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <v>0</v>
       </c>
       <c r="E80" t="e">
@@ -5436,47 +5273,47 @@
         <v>#REF!</v>
       </c>
       <c r="F80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="41">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C81" s="42">
-        <f t="shared" si="4"/>
+      <c r="C81" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D81" s="12">
-        <v>0</v>
-      </c>
-      <c r="E81" s="11" t="e">
+      <c r="D81" s="11">
+        <v>0</v>
+      </c>
+      <c r="E81" t="e">
         <f>#REF!*D81</f>
         <v>#REF!</v>
       </c>
-      <c r="F81" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="18">
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C82" s="26">
-        <f t="shared" si="4"/>
+      <c r="C82" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <v>0</v>
       </c>
       <c r="E82" t="e">
@@ -5484,23 +5321,23 @@
         <v>#REF!</v>
       </c>
       <c r="F82">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F82:F95" si="9">C82*D82</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="18">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C83" s="26">
-        <f t="shared" si="4"/>
+      <c r="C83" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="11">
         <v>0</v>
       </c>
       <c r="E83" t="e">
@@ -5508,23 +5345,23 @@
         <v>#REF!</v>
       </c>
       <c r="F83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="35">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C84" s="36">
-        <f t="shared" si="4"/>
+      <c r="C84" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="11">
         <v>0</v>
       </c>
       <c r="E84" t="e">
@@ -5532,47 +5369,47 @@
         <v>#REF!</v>
       </c>
       <c r="F84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="41">
+      <c r="A85" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="37">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C85" s="42">
-        <f t="shared" si="4"/>
+      <c r="C85" s="38">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D85" s="12">
-        <v>0</v>
-      </c>
-      <c r="E85" s="11" t="e">
+      <c r="D85" s="11">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10" t="e">
         <f>#REF!*D85</f>
         <v>#REF!</v>
       </c>
-      <c r="F85" s="11">
-        <f t="shared" si="5"/>
+      <c r="F85" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="18">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C86" s="26">
-        <f t="shared" si="4"/>
+      <c r="C86" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="11">
         <v>0</v>
       </c>
       <c r="E86" t="e">
@@ -5580,23 +5417,23 @@
         <v>#REF!</v>
       </c>
       <c r="F86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="35">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C87" s="36">
-        <f t="shared" si="4"/>
+      <c r="C87" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="11">
         <v>0</v>
       </c>
       <c r="E87" t="e">
@@ -5604,71 +5441,71 @@
         <v>#REF!</v>
       </c>
       <c r="F87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="41">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="31">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C88" s="42">
-        <f t="shared" si="4"/>
+      <c r="C88" s="32">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D88" s="12">
-        <v>0</v>
-      </c>
-      <c r="E88" s="11" t="e">
+      <c r="D88" s="11">
+        <v>0</v>
+      </c>
+      <c r="E88" t="e">
         <f>#REF!*D88</f>
         <v>#REF!</v>
       </c>
-      <c r="F88" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="18">
+      <c r="F88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="37">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C89" s="26">
-        <f t="shared" si="4"/>
+      <c r="C89" s="38">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D89" s="12">
-        <v>0</v>
-      </c>
-      <c r="E89" t="e">
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="10" t="e">
         <f>#REF!*D89</f>
         <v>#REF!</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="18">
+      <c r="F89" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C90" s="26">
-        <f t="shared" si="4"/>
+      <c r="C90" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="11">
         <v>0</v>
       </c>
       <c r="E90" t="e">
@@ -5676,23 +5513,23 @@
         <v>#REF!</v>
       </c>
       <c r="F90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B91" s="35">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C91" s="36">
-        <f t="shared" si="4"/>
+      <c r="C91" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <v>0</v>
       </c>
       <c r="E91" t="e">
@@ -5700,47 +5537,39 @@
         <v>#REF!</v>
       </c>
       <c r="F91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92" s="41">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C92" s="42">
-        <f t="shared" si="4"/>
+      <c r="C92" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D92" s="12">
-        <v>0</v>
-      </c>
-      <c r="E92" s="11" t="e">
-        <f>#REF!*D92</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B93" s="18">
+      <c r="D92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="17">
         <f>Summary!B18</f>
         <v>0.25</v>
       </c>
-      <c r="C93" s="26">
-        <f t="shared" si="4"/>
+      <c r="C93" s="23">
+        <f t="shared" si="8"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="11">
         <v>0</v>
       </c>
       <c r="E93" t="e">
@@ -5748,71 +5577,71 @@
         <v>#REF!</v>
       </c>
       <c r="F93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B94" s="35">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C94" s="36">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D94" s="12">
-        <v>0</v>
-      </c>
-      <c r="E94" t="e">
+      <c r="A94" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="12">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C94" s="21">
+        <f>(B94*1000)/31</f>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11" t="e">
         <f>#REF!*D94</f>
         <v>#REF!</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="5"/>
+      <c r="F94" s="11">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="40" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B95" s="41">
-        <f>Summary!B18</f>
-        <v>0.25</v>
+        <f>Summary!B24</f>
+        <v>0.26</v>
       </c>
       <c r="C95" s="42">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D95" s="12">
-        <v>0</v>
-      </c>
-      <c r="E95" s="11" t="e">
+        <f t="shared" ref="C95:C111" si="10">(B95*1000)/31</f>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10" t="e">
         <f>#REF!*D95</f>
         <v>#REF!</v>
       </c>
-      <c r="F95" s="11">
-        <f t="shared" si="5"/>
+      <c r="F95" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C96" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D96" s="12">
+      <c r="A96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="17">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C96" s="23">
+        <f t="shared" si="10"/>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D96" s="11">
         <v>0</v>
       </c>
       <c r="E96" t="e">
@@ -5820,23 +5649,23 @@
         <v>#REF!</v>
       </c>
       <c r="F96">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F96:F113" si="11">C96*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C97" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D97" s="12">
+      <c r="A97" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="17">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C97" s="23">
+        <f t="shared" si="10"/>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D97" s="11">
         <v>0</v>
       </c>
       <c r="E97" t="e">
@@ -5844,23 +5673,23 @@
         <v>#REF!</v>
       </c>
       <c r="F97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B98" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C98" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D98" s="12">
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="17">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C98" s="23">
+        <f t="shared" si="10"/>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D98" s="11">
         <v>0</v>
       </c>
       <c r="E98" t="e">
@@ -5868,47 +5697,47 @@
         <v>#REF!</v>
       </c>
       <c r="F98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C99" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D99" s="12">
-        <v>0</v>
-      </c>
-      <c r="E99" t="e">
+      <c r="A99" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="37">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C99" s="38">
+        <f t="shared" si="10"/>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10" t="e">
         <f>#REF!*D99</f>
         <v>#REF!</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C100" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D100" s="12">
+      <c r="F99" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="17">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C100" s="23">
+        <f t="shared" si="10"/>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D100" s="11">
         <v>0</v>
       </c>
       <c r="E100" t="e">
@@ -5916,23 +5745,23 @@
         <v>#REF!</v>
       </c>
       <c r="F100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101" s="18">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C101" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D101" s="12">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" s="17">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C101" s="23">
+        <f t="shared" si="10"/>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D101" s="11">
         <v>0</v>
       </c>
       <c r="E101" t="e">
@@ -5940,23 +5769,23 @@
         <v>#REF!</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102" s="15">
-        <f>Summary!B18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C102" s="27">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="D102" s="12">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="17">
+        <f>Summary!B24</f>
+        <v>0.26</v>
+      </c>
+      <c r="C102" s="23">
+        <f t="shared" si="10"/>
+        <v>8.387096774193548</v>
+      </c>
+      <c r="D102" s="11">
         <v>0</v>
       </c>
       <c r="E102" t="e">
@@ -5964,71 +5793,71 @@
         <v>#REF!</v>
       </c>
       <c r="F102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="37">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C103" s="50">
-        <f>(B103*1000)/31</f>
+      <c r="C103" s="38">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D103" s="12">
-        <v>0</v>
-      </c>
-      <c r="E103" s="12" t="e">
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10" t="e">
         <f>#REF!*D103</f>
         <v>#REF!</v>
       </c>
-      <c r="F103" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="45">
+      <c r="F103" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C104" s="46">
-        <f t="shared" ref="C104:C133" si="6">(B104*1000)/31</f>
+      <c r="C104" s="23">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D104" s="12">
-        <v>0</v>
-      </c>
-      <c r="E104" s="11" t="e">
+      <c r="D104" s="11">
+        <v>0</v>
+      </c>
+      <c r="E104" t="e">
         <f>#REF!*D104</f>
         <v>#REF!</v>
       </c>
-      <c r="F104" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="17" t="s">
-        <v>63</v>
+      <c r="F104">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>138</v>
       </c>
       <c r="B105" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C105" s="26">
-        <f t="shared" si="6"/>
+      <c r="C105" s="23">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="11">
         <v>0</v>
       </c>
       <c r="E105" t="e">
@@ -6036,23 +5865,23 @@
         <v>#REF!</v>
       </c>
       <c r="F105">
-        <f t="shared" ref="F105:F136" si="7">C105*D105</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="17" t="s">
-        <v>64</v>
+      <c r="A106" t="s">
+        <v>139</v>
       </c>
       <c r="B106" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C106" s="26">
-        <f t="shared" si="6"/>
+      <c r="C106" s="23">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="11">
         <v>0</v>
       </c>
       <c r="E106" t="e">
@@ -6060,23 +5889,23 @@
         <v>#REF!</v>
       </c>
       <c r="F106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" s="18">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C107" s="26">
-        <f t="shared" si="6"/>
+      <c r="C107" s="23">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="11">
         <v>0</v>
       </c>
       <c r="E107" t="e">
@@ -6084,47 +5913,39 @@
         <v>#REF!</v>
       </c>
       <c r="F107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B108" s="18">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C108" s="26">
-        <f t="shared" si="6"/>
+      <c r="C108" s="23">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D108" s="12">
-        <v>0</v>
-      </c>
-      <c r="E108" t="e">
-        <f>#REF!*D108</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="7"/>
+      <c r="D108" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B109" s="35">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="31">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C109" s="36">
-        <f t="shared" si="6"/>
+      <c r="C109" s="32">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="11">
         <v>0</v>
       </c>
       <c r="E109" t="e">
@@ -6132,47 +5953,47 @@
         <v>#REF!</v>
       </c>
       <c r="F109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110" s="41">
+      <c r="A110" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="37">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C110" s="42">
-        <f t="shared" si="6"/>
+      <c r="C110" s="38">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D110" s="12">
-        <v>0</v>
-      </c>
-      <c r="E110" s="11" t="e">
+      <c r="D110" s="11">
+        <v>0</v>
+      </c>
+      <c r="E110" s="10" t="e">
         <f>#REF!*D110</f>
         <v>#REF!</v>
       </c>
-      <c r="F110" s="11">
-        <f t="shared" si="7"/>
+      <c r="F110" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111" s="18">
+      <c r="A111" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C111" s="26">
-        <f t="shared" si="6"/>
+      <c r="C111" s="23">
+        <f t="shared" si="10"/>
         <v>8.387096774193548</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="11">
         <v>0</v>
       </c>
       <c r="E111" t="e">
@@ -6180,47 +6001,47 @@
         <v>#REF!</v>
       </c>
       <c r="F111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B112" s="18">
+      <c r="A112" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="37">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C112" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D112" s="12">
-        <v>0</v>
-      </c>
-      <c r="E112" t="e">
+      <c r="C112" s="38">
+        <f t="shared" ref="C112:C120" si="12">(B112*1000)/33</f>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0</v>
+      </c>
+      <c r="E112" s="10" t="e">
         <f>#REF!*D112</f>
         <v>#REF!</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B113" s="18">
+      <c r="F112" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C113" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D113" s="12">
+      <c r="C113" s="23">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D113" s="11">
         <v>0</v>
       </c>
       <c r="E113" t="e">
@@ -6228,23 +6049,23 @@
         <v>#REF!</v>
       </c>
       <c r="F113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B114" s="18">
+      <c r="A114" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C114" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D114" s="12">
+      <c r="C114" s="23">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D114" s="11">
         <v>0</v>
       </c>
       <c r="E114" t="e">
@@ -6252,23 +6073,23 @@
         <v>#REF!</v>
       </c>
       <c r="F114">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F114:F119" si="13">C114*D114</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B115" s="18">
+      <c r="A115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C115" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D115" s="12">
+      <c r="C115" s="23">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D115" s="11">
         <v>0</v>
       </c>
       <c r="E115" t="e">
@@ -6276,1238 +6097,305 @@
         <v>#REF!</v>
       </c>
       <c r="F115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B116" s="18">
+      <c r="A116" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C116" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D116" s="12">
-        <v>0</v>
-      </c>
-      <c r="E116" t="e">
-        <f>#REF!*D116</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="7"/>
+      <c r="C116" s="23">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D116" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B117" s="18">
+      <c r="A117" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C117" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D117" s="12">
-        <v>0</v>
-      </c>
-      <c r="E117" t="e">
-        <f>#REF!*D117</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="7"/>
+      <c r="C117" s="23">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D117" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B118" s="35">
+      <c r="A118" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="17">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C118" s="36">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D118" s="12">
-        <v>0</v>
-      </c>
-      <c r="E118" t="e">
-        <f>#REF!*D118</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="7"/>
+      <c r="C118" s="23">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D118" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B119" s="41">
+      <c r="A119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="31">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C119" s="42">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D119" s="12">
-        <v>0</v>
-      </c>
-      <c r="E119" s="11" t="e">
+      <c r="C119" s="32">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D119" s="11">
+        <v>0</v>
+      </c>
+      <c r="E119" t="e">
         <f>#REF!*D119</f>
         <v>#REF!</v>
       </c>
-      <c r="F119" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="18">
+      <c r="F119">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="36"/>
+      <c r="B120" s="37">
         <f>Summary!B24</f>
         <v>0.26</v>
       </c>
-      <c r="C120" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D120" s="12">
-        <v>0</v>
-      </c>
-      <c r="E120" t="e">
-        <f>#REF!*D120</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C121" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D121" s="12">
-        <v>0</v>
-      </c>
-      <c r="E121" t="e">
-        <f>#REF!*D121</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B122" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C122" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D122" s="12">
-        <v>0</v>
-      </c>
-      <c r="E122" t="e">
-        <f>#REF!*D122</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B123" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C123" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D123" s="12">
-        <v>0</v>
-      </c>
-      <c r="E123" t="e">
-        <f>#REF!*D123</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" s="35">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C124" s="36">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D124" s="12">
-        <v>0</v>
-      </c>
-      <c r="E124" t="e">
-        <f>#REF!*D124</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B125" s="41">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C125" s="42">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D125" s="12">
-        <v>0</v>
-      </c>
-      <c r="E125" s="11" t="e">
-        <f>#REF!*D125</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F125" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B126" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C126" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D126" s="12">
-        <v>0</v>
-      </c>
-      <c r="E126" t="e">
-        <f>#REF!*D126</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B127" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C127" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D127" s="12">
-        <v>0</v>
-      </c>
-      <c r="E127" t="e">
-        <f>#REF!*D127</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B128" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C128" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D128" s="12">
-        <v>0</v>
-      </c>
-      <c r="E128" t="e">
-        <f>#REF!*D128</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B129" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C129" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D129" s="12">
-        <v>0</v>
-      </c>
-      <c r="E129" t="e">
-        <f>#REF!*D129</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B130" s="35">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C130" s="36">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D130" s="12">
-        <v>0</v>
-      </c>
-      <c r="E130" t="e">
-        <f>#REF!*D130</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B131" s="41">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C131" s="42">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D131" s="12">
-        <v>0</v>
-      </c>
-      <c r="E131" s="11" t="e">
-        <f>#REF!*D131</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F131" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B132" s="18">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C132" s="26">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D132" s="12">
-        <v>0</v>
-      </c>
-      <c r="E132" t="e">
-        <f>#REF!*D132</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B133" s="15">
-        <f>Summary!B24</f>
-        <v>0.26</v>
-      </c>
-      <c r="C133" s="27">
-        <f t="shared" si="6"/>
-        <v>8.387096774193548</v>
-      </c>
-      <c r="D133" s="12">
-        <v>0</v>
-      </c>
-      <c r="E133" t="e">
-        <f>#REF!*D133</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="49" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C134" s="50" t="e">
-        <f>(B134*1000)/33</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D134" s="12">
-        <v>0</v>
-      </c>
-      <c r="E134" s="12" t="e">
-        <f>#REF!*D134</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F134" s="12" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B135" s="45" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C135" s="46" t="e">
-        <f t="shared" ref="C135:C166" si="8">(B135*1000)/33</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D135" s="12">
-        <v>0</v>
-      </c>
-      <c r="E135" s="11" t="e">
-        <f>#REF!*D135</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F135" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B136" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C136" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D136" s="12">
-        <v>0</v>
-      </c>
-      <c r="E136" t="e">
-        <f>#REF!*D136</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F136" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B137" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C137" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D137" s="12">
-        <v>0</v>
-      </c>
-      <c r="E137" t="e">
-        <f>#REF!*D137</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F137" t="e">
-        <f t="shared" ref="F137:F166" si="9">C137*D137</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B138" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C138" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D138" s="12">
-        <v>0</v>
-      </c>
-      <c r="E138" t="e">
-        <f>#REF!*D138</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F138" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B139" s="35" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C139" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D139" s="12">
-        <v>0</v>
-      </c>
-      <c r="E139" t="e">
-        <f>#REF!*D139</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F139" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B140" s="41" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C140" s="42" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D140" s="12">
-        <v>0</v>
-      </c>
-      <c r="E140" s="11" t="e">
-        <f>#REF!*D140</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F140" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B141" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C141" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D141" s="12">
-        <v>0</v>
-      </c>
-      <c r="E141" t="e">
-        <f>#REF!*D141</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F141" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B142" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C142" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D142" s="12">
-        <v>0</v>
-      </c>
-      <c r="E142" t="e">
-        <f>#REF!*D142</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F142" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B143" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C143" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D143" s="12">
-        <v>0</v>
-      </c>
-      <c r="E143" t="e">
-        <f>#REF!*D143</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F143" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B144" s="35" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C144" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D144" s="12">
-        <v>0</v>
-      </c>
-      <c r="E144" t="e">
-        <f>#REF!*D144</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F144" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B145" s="41" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C145" s="42" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D145" s="12">
-        <v>0</v>
-      </c>
-      <c r="E145" s="11" t="e">
-        <f>#REF!*D145</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F145" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B146" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C146" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D146" s="12">
-        <v>0</v>
-      </c>
-      <c r="E146" t="e">
-        <f>#REF!*D146</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F146" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B147" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C147" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D147" s="12">
-        <v>0</v>
-      </c>
-      <c r="E147" t="e">
-        <f>#REF!*D147</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F147" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B148" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C148" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D148" s="12">
-        <v>0</v>
-      </c>
-      <c r="E148" t="e">
-        <f>#REF!*D148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F148" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B149" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C149" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D149" s="12">
-        <v>0</v>
-      </c>
-      <c r="E149" t="e">
-        <f>#REF!*D149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F149" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B150" s="35" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C150" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D150" s="12">
-        <v>0</v>
-      </c>
-      <c r="E150" t="e">
-        <f>#REF!*D150</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F150" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B151" s="41" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C151" s="42" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D151" s="12">
-        <v>0</v>
-      </c>
-      <c r="E151" s="11" t="e">
-        <f>#REF!*D151</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F151" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B152" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C152" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D152" s="12">
-        <v>0</v>
-      </c>
-      <c r="E152" t="e">
-        <f>#REF!*D152</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F152" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C153" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D153" s="12">
-        <v>0</v>
-      </c>
-      <c r="E153" t="e">
-        <f>#REF!*D153</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F153" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B154" s="35" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C154" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D154" s="12">
-        <v>0</v>
-      </c>
-      <c r="E154" t="e">
-        <f>#REF!*D154</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F154" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B155" s="41" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C155" s="42" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D155" s="12">
-        <v>0</v>
-      </c>
-      <c r="E155" s="11" t="e">
-        <f>#REF!*D155</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F155" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B156" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C156" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D156" s="12">
-        <v>0</v>
-      </c>
-      <c r="E156" t="e">
-        <f>#REF!*D156</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F156" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B157" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C157" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D157" s="12">
-        <v>0</v>
-      </c>
-      <c r="E157" t="e">
-        <f>#REF!*D157</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F157" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B158" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C158" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D158" s="12">
-        <v>0</v>
-      </c>
-      <c r="E158" t="e">
-        <f>#REF!*D158</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F158" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B159" s="35" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C159" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D159" s="12">
-        <v>0</v>
-      </c>
-      <c r="E159" t="e">
-        <f>#REF!*D159</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F159" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B160" s="41" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C160" s="42" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D160" s="12">
-        <v>0</v>
-      </c>
-      <c r="E160" s="11" t="e">
-        <f>#REF!*D160</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F160" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B161" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C161" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D161" s="12">
-        <v>0</v>
-      </c>
-      <c r="E161" t="e">
-        <f>#REF!*D161</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F161" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B162" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C162" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D162" s="12">
-        <v>0</v>
-      </c>
-      <c r="E162" t="e">
-        <f>#REF!*D162</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F162" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C163" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D163" s="12">
-        <v>0</v>
-      </c>
-      <c r="E163" t="e">
-        <f>#REF!*D163</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F163" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B164" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C164" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D164" s="12">
-        <v>0</v>
-      </c>
-      <c r="E164" t="e">
-        <f>#REF!*D164</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F164" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B165" s="18" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C165" s="26" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D165" s="12">
-        <v>0</v>
-      </c>
-      <c r="E165" t="e">
-        <f>#REF!*D165</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F165" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B166" s="35" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C166" s="36" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D166" s="12">
-        <v>0</v>
-      </c>
-      <c r="E166" t="e">
-        <f>#REF!*D166</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F166" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C120" s="38">
+        <f t="shared" si="12"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="D120" s="11">
+        <v>0</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D166">
+  <conditionalFormatting sqref="D54:D58">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D63">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D67 D3:D20 D22:D27 D29:D34 D36:D52 D70:D76 D79:D92 D95:D109 D111 D113:D118">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
     <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7526,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7542,7 +6430,8 @@
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
     <col min="16" max="37" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="46" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="47" max="51" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -7552,632 +6441,632 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="25">
+      <c r="A1" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="22">
         <f>Summary!F31</f>
         <v>0</v>
       </c>
-      <c r="R1" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="25">
+      <c r="R1" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="48"/>
+      <c r="T1" s="22">
         <f>1000-Q1</f>
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="S3" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="V3" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B4" s="52">
+      <c r="B4" s="44">
         <v>42449</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="44">
         <v>42450</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="44">
         <v>42451</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="44">
         <v>42452</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="44">
         <v>42453</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="44">
         <v>42454</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="44">
         <v>42455</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="44">
         <v>42456</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="44">
         <v>42457</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="44">
         <v>42458</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="44">
         <v>42459</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="44">
         <v>42460</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="44">
         <v>42461</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="44">
         <v>42462</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="44">
         <v>42463</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="44">
         <v>42464</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="44">
         <v>42465</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="44">
         <v>42466</v>
       </c>
-      <c r="T4" s="52">
+      <c r="T4" s="44">
         <v>42467</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U4" s="44">
         <v>42468</v>
       </c>
-      <c r="V4" s="52">
+      <c r="V4" s="44">
         <v>42469</v>
       </c>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="25">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22">
         <v>1000</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="22"/>
+      <c r="AY5" s="22"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="25">
+        <v>15</v>
+      </c>
+      <c r="B6" s="22">
         <v>1000</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>1000</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>1000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>1000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>1000</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>1000</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>1000</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="22">
         <v>1000</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="22">
         <v>1000</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <v>1000</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>1000</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="22">
         <v>1000</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <v>1000</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="22">
         <v>1000</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="22">
         <v>1000</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="22">
         <v>1000</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="22">
         <v>1000</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="22">
         <v>1000</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="22">
         <v>1000</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="22">
         <v>1000</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="22">
         <v>1000</v>
       </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="25"/>
-      <c r="BD6" s="25"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0</v>
-      </c>
-      <c r="C7" s="25">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
         <f t="shared" ref="C7:V7" si="0">B5-C5</f>
         <v>1000</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
+        <v>18</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
         <f>C5-C6</f>
         <v>-1000</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <f>D5-D6</f>
         <v>-1000</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <f t="shared" ref="E8:V8" si="1">E5-E6</f>
         <v>-1000</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="22">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
